--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H2">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I2">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J2">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>161.9277179491996</v>
+        <v>68.179706451627</v>
       </c>
       <c r="R2">
-        <v>161.9277179491996</v>
+        <v>613.617358064643</v>
       </c>
       <c r="S2">
-        <v>0.04213083573205318</v>
+        <v>0.01252348808361298</v>
       </c>
       <c r="T2">
-        <v>0.04213083573205318</v>
+        <v>0.01252348808361298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H3">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I3">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J3">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>785.1407772887725</v>
+        <v>306.520092354755</v>
       </c>
       <c r="R3">
-        <v>785.1407772887725</v>
+        <v>2758.680831192795</v>
       </c>
       <c r="S3">
-        <v>0.204280264882553</v>
+        <v>0.0563026877611486</v>
       </c>
       <c r="T3">
-        <v>0.204280264882553</v>
+        <v>0.05630268776114861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H4">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I4">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J4">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>869.0164437019127</v>
+        <v>338.44547533783</v>
       </c>
       <c r="R4">
-        <v>869.0164437019127</v>
+        <v>3046.00927804047</v>
       </c>
       <c r="S4">
-        <v>0.2261032854766994</v>
+        <v>0.06216685430221443</v>
       </c>
       <c r="T4">
-        <v>0.2261032854766994</v>
+        <v>0.06216685430221443</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H5">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I5">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J5">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>748.2405189678713</v>
+        <v>301.494898933339</v>
       </c>
       <c r="R5">
-        <v>748.2405189678713</v>
+        <v>2713.454090400051</v>
       </c>
       <c r="S5">
-        <v>0.1946794458166292</v>
+        <v>0.05537964257356622</v>
       </c>
       <c r="T5">
-        <v>0.1946794458166292</v>
+        <v>0.05537964257356623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H6">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I6">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J6">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>126.1123612626971</v>
+        <v>53.98070213935301</v>
       </c>
       <c r="R6">
-        <v>126.1123612626971</v>
+        <v>485.826319254177</v>
       </c>
       <c r="S6">
-        <v>0.03281228960323468</v>
+        <v>0.009915365072257754</v>
       </c>
       <c r="T6">
-        <v>0.03281228960323468</v>
+        <v>0.009915365072257754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.09560876621269</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H7">
-        <v>4.09560876621269</v>
+        <v>30.851089</v>
       </c>
       <c r="I7">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121536</v>
       </c>
       <c r="J7">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121537</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>69.39557048095143</v>
+        <v>189.0398113224843</v>
       </c>
       <c r="R7">
-        <v>69.39557048095143</v>
+        <v>1701.358301902359</v>
       </c>
       <c r="S7">
-        <v>0.01805554612572452</v>
+        <v>0.03472349688254023</v>
       </c>
       <c r="T7">
-        <v>0.01805554612572452</v>
+        <v>0.03472349688254023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.09560876621269</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H8">
-        <v>4.09560876621269</v>
+        <v>30.851089</v>
       </c>
       <c r="I8">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121536</v>
       </c>
       <c r="J8">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121537</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>336.4790959686425</v>
+        <v>849.878995392926</v>
       </c>
       <c r="R8">
-        <v>336.4790959686425</v>
+        <v>7648.910958536335</v>
       </c>
       <c r="S8">
-        <v>0.0875461329231603</v>
+        <v>0.1561087605865204</v>
       </c>
       <c r="T8">
-        <v>0.0875461329231603</v>
+        <v>0.1561087605865204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.09560876621269</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H9">
-        <v>4.09560876621269</v>
+        <v>30.851089</v>
       </c>
       <c r="I9">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121536</v>
       </c>
       <c r="J9">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121537</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>372.4247623062358</v>
+        <v>938.3975398340123</v>
       </c>
       <c r="R9">
-        <v>372.4247623062358</v>
+        <v>8445.577858506111</v>
       </c>
       <c r="S9">
-        <v>0.09689858340494531</v>
+        <v>0.1723681579084086</v>
       </c>
       <c r="T9">
-        <v>0.09689858340494531</v>
+        <v>0.1723681579084086</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.09560876621269</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H10">
-        <v>4.09560876621269</v>
+        <v>30.851089</v>
       </c>
       <c r="I10">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121536</v>
       </c>
       <c r="J10">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121537</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>320.6651605318647</v>
+        <v>835.9457934816292</v>
       </c>
       <c r="R10">
-        <v>320.6651605318647</v>
+        <v>7523.512141334663</v>
       </c>
       <c r="S10">
-        <v>0.08343161612145251</v>
+        <v>0.1535494610942807</v>
       </c>
       <c r="T10">
-        <v>0.08343161612145251</v>
+        <v>0.1535494610942807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.28369633333333</v>
+      </c>
+      <c r="H11">
+        <v>30.851089</v>
+      </c>
+      <c r="I11">
+        <v>0.5442419095121536</v>
+      </c>
+      <c r="J11">
+        <v>0.5442419095121537</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N11">
+        <v>43.662509</v>
+      </c>
+      <c r="O11">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P11">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q11">
+        <v>149.6706612358112</v>
+      </c>
+      <c r="R11">
+        <v>1347.035951122301</v>
+      </c>
+      <c r="S11">
+        <v>0.02749203304040373</v>
+      </c>
+      <c r="T11">
+        <v>0.02749203304040373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H12">
+        <v>14.708411</v>
+      </c>
+      <c r="I12">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J12">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.382477</v>
+      </c>
+      <c r="N12">
+        <v>55.147431</v>
+      </c>
+      <c r="O12">
+        <v>0.06380158579420245</v>
+      </c>
+      <c r="P12">
+        <v>0.06380158579420243</v>
+      </c>
+      <c r="Q12">
+        <v>90.12567563801565</v>
+      </c>
+      <c r="R12">
+        <v>811.131080742141</v>
+      </c>
+      <c r="S12">
+        <v>0.01655460082804923</v>
+      </c>
+      <c r="T12">
+        <v>0.01655460082804923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.09560876621269</v>
-      </c>
-      <c r="H11">
-        <v>4.09560876621269</v>
-      </c>
-      <c r="I11">
-        <v>0.2999938784888306</v>
-      </c>
-      <c r="J11">
-        <v>0.2999938784888306</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="N11">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="O11">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="P11">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="Q11">
-        <v>54.04657933406</v>
-      </c>
-      <c r="R11">
-        <v>54.04657933406</v>
-      </c>
-      <c r="S11">
-        <v>0.01406199991354795</v>
-      </c>
-      <c r="T11">
-        <v>0.01406199991354795</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H13">
+        <v>14.708411</v>
+      </c>
+      <c r="I13">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J13">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N13">
+        <v>247.930015</v>
+      </c>
+      <c r="O13">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="P13">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="Q13">
+        <v>405.1840622062405</v>
+      </c>
+      <c r="R13">
+        <v>3646.656559856165</v>
+      </c>
+      <c r="S13">
+        <v>0.07442563247628448</v>
+      </c>
+      <c r="T13">
+        <v>0.07442563247628448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H14">
+        <v>14.708411</v>
+      </c>
+      <c r="I14">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J14">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>91.25099666666667</v>
+      </c>
+      <c r="N14">
+        <v>273.75299</v>
+      </c>
+      <c r="O14">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="P14">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="Q14">
+        <v>447.3857210443211</v>
+      </c>
+      <c r="R14">
+        <v>4026.47148939889</v>
+      </c>
+      <c r="S14">
+        <v>0.08217738148010835</v>
+      </c>
+      <c r="T14">
+        <v>0.08217738148010835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H15">
+        <v>14.708411</v>
+      </c>
+      <c r="I15">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J15">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="N15">
+        <v>243.865367</v>
+      </c>
+      <c r="O15">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="P15">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="Q15">
+        <v>398.5413385002041</v>
+      </c>
+      <c r="R15">
+        <v>3586.872046501837</v>
+      </c>
+      <c r="S15">
+        <v>0.07320547364156871</v>
+      </c>
+      <c r="T15">
+        <v>0.07320547364156871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H16">
+        <v>14.708411</v>
+      </c>
+      <c r="I16">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J16">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N16">
+        <v>43.662509</v>
+      </c>
+      <c r="O16">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P16">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q16">
+        <v>71.35623640702211</v>
+      </c>
+      <c r="R16">
+        <v>642.206127663199</v>
+      </c>
+      <c r="S16">
+        <v>0.01310696426903562</v>
+      </c>
+      <c r="T16">
+        <v>0.01310696426903561</v>
       </c>
     </row>
   </sheetData>
